--- a/99_その他/メトリック評価結果_第2反復.xlsx
+++ b/99_その他/メトリック評価結果_第2反復.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\git\Repitition2\99_その他\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF67338-EA8A-4726-B575-12FE9A2715F8}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F295034A-8EF8-4796-AF59-7A2062EE644D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="-225" yWindow="405" windowWidth="11580" windowHeight="10470" xr2:uid="{F824FE31-950A-4A00-8B55-1405DD74EA34}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F824FE31-950A-4A00-8B55-1405DD74EA34}"/>
   </bookViews>
   <sheets>
     <sheet name="反復２" sheetId="1" r:id="rId1"/>
@@ -667,8 +667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{690B41FC-A7D6-4455-9E1A-944FF1DAE2F6}">
   <dimension ref="B1:M13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -936,7 +936,7 @@
         <v>0.66700000000000004</v>
       </c>
       <c r="F8" s="2">
-        <v>0.66700000000000004</v>
+        <v>0.55600000000000005</v>
       </c>
       <c r="G8" s="2">
         <v>0</v>
@@ -1218,21 +1218,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -1416,24 +1401,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B784EE6-81CC-4911-92B3-E729EA3D454F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7634EFA-5C65-4DE2-B201-E26FECE043E6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{35DE2586-3769-48E0-B864-FD64FAF483BF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1449,4 +1432,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B7634EFA-5C65-4DE2-B201-E26FECE043E6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9B784EE6-81CC-4911-92B3-E729EA3D454F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>